--- a/data/edited_data/gender-pay-gap-median-earnings-ft_2023.xlsx
+++ b/data/edited_data/gender-pay-gap-median-earnings-ft_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/female-labour/data/edited_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/edited_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{71EB911A-6A61-4E9F-B731-585BDA26EE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59B613C3-0120-4D83-8724-FC8371575128}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{71EB911A-6A61-4E9F-B731-585BDA26EE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BE5C6ED-5505-4A1F-8514-400FA0B2C7AA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CF21DEB6-DD90-4C3A-8F16-7949CD3F6AFF}"/>
   </bookViews>
@@ -179,10 +179,10 @@
     <t>Korea</t>
   </si>
   <si>
-    <t>gender-pay-gap_2023</t>
-  </si>
-  <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>pay_gap</t>
   </si>
 </sst>
 </file>
@@ -296,6 +296,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,7 +622,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -628,10 +632,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
